--- a/data/names.xlsx
+++ b/data/names.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\parti\Projects\spice-core\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://connectpolyu-my.sharepoint.com/personal/19078352r_connect_polyu_hk/Documents/Projects/spice-core/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A54D25E3-EAFC-48D0-A9E4-9DA0F9B87585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{A54D25E3-EAFC-48D0-A9E4-9DA0F9B87585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2BDF26A3-0FCC-46E0-A3B7-D4D4BBBEE959}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12372" uniqueCount="2705">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12371" uniqueCount="2705">
   <si>
     <t>language</t>
   </si>
@@ -8587,8 +8587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BR562"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="AO10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BA15" sqref="BA15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10154,10 +10154,7 @@
         <v>507</v>
       </c>
       <c r="BA15" t="s">
-        <v>70</v>
-      </c>
-      <c r="BB15" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="BC15" t="s">
         <v>91</v>
